--- a/data/Article requirement 2024.xlsx
+++ b/data/Article requirement 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAKKAL NALA PANI\Makkal Nala Pani 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aswathshakthi/PycharmProjects/MNP25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E42B9-81B5-45B0-A028-CF2D2C0E8791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C107D-53EE-AC45-B42F-FA519098CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{375AFA1E-CB7D-4149-B6A2-752AE76ED972}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{375AFA1E-CB7D-4149-B6A2-752AE76ED972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1612,9 +1623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1652,7 +1663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1758,7 +1769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1900,7 +1911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1908,374 +1919,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85264993-E602-4DFE-BD5A-98A4F03B9392}">
-  <dimension ref="B2:B73"/>
+  <dimension ref="A2:A73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2288,27 +2299,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B842ECF-7216-423A-8E86-0F215237175B}">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.44140625" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="62" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>190</v>
       </c>
@@ -2323,7 +2334,7 @@
       <c r="J1" s="42"/>
       <c r="K1" s="58"/>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>89</v>
@@ -2360,7 +2371,7 @@
       </c>
       <c r="M2" s="64"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2394,7 +2405,7 @@
       </c>
       <c r="M3" s="65"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2424,7 +2435,7 @@
       </c>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2455,7 +2466,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2484,7 +2495,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2554,7 +2565,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2584,7 +2595,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2616,7 +2627,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2643,7 +2654,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2667,7 +2678,7 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2691,7 +2702,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2721,7 +2732,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2779,7 +2790,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>347</v>
@@ -2792,7 +2803,7 @@
       <c r="K17" s="45"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -2824,7 +2835,7 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -2852,7 +2863,7 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -2880,7 +2891,7 @@
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -2911,7 +2922,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="66"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -2938,7 +2949,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="46"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -2966,7 +2977,7 @@
       </c>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -2996,7 +3007,7 @@
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -3028,7 +3039,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -3054,7 +3065,7 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -3086,7 +3097,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="56"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -3116,7 +3127,7 @@
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -3148,7 +3159,7 @@
       </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -3174,7 +3185,7 @@
       </c>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -3251,7 +3262,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -3283,7 +3294,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -3359,7 +3370,7 @@
       </c>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:20" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -3452,7 +3463,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:20" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -3482,7 +3493,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -3512,7 +3523,7 @@
       </c>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -3542,7 +3553,7 @@
       </c>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -3574,7 +3585,7 @@
       </c>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -3607,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -3635,7 +3646,7 @@
       </c>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -3663,7 +3674,7 @@
       </c>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -3693,7 +3704,7 @@
       </c>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -3721,7 +3732,7 @@
       </c>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -3753,7 +3764,7 @@
       </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -3783,7 +3794,7 @@
       </c>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -3811,7 +3822,7 @@
       </c>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -3839,7 +3850,7 @@
       </c>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -3867,7 +3878,7 @@
       </c>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -3891,7 +3902,7 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -3915,7 +3926,7 @@
       <c r="K54" s="45"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -3939,7 +3950,7 @@
       <c r="K55" s="45"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -3963,7 +3974,7 @@
       <c r="K56" s="45"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -3985,7 +3996,7 @@
       <c r="K57" s="45"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -4009,7 +4020,7 @@
       <c r="K58" s="45"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -4040,7 +4051,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -4071,7 +4082,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="39"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -4102,7 +4113,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -4129,7 +4140,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -4156,7 +4167,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -4183,7 +4194,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -4210,7 +4221,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -4237,7 +4248,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -4264,7 +4275,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -4291,7 +4302,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -4318,7 +4329,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -4347,7 +4358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -4370,7 +4381,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="36"/>
       <c r="C72" s="10"/>
@@ -4390,7 +4401,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="48" t="s">
         <v>306</v>
@@ -4405,7 +4416,7 @@
       <c r="K73" s="45"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
@@ -4418,7 +4429,7 @@
       <c r="K74" s="45"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>1</v>
       </c>
@@ -4435,7 +4446,7 @@
       <c r="K75" s="45"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>2</v>
       </c>
@@ -4453,7 +4464,7 @@
       <c r="K76" s="45"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>3</v>
       </c>
@@ -4471,7 +4482,7 @@
       <c r="K77" s="45"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>4</v>
       </c>
@@ -4488,7 +4499,7 @@
       <c r="J78" s="10"/>
       <c r="K78" s="45"/>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>5</v>
       </c>
@@ -4505,7 +4516,7 @@
       <c r="J79" s="10"/>
       <c r="K79" s="45"/>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>6</v>
       </c>
@@ -4522,7 +4533,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="45"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>7</v>
       </c>
@@ -4539,7 +4550,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="45"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>8</v>
       </c>
@@ -4556,7 +4567,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="45"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>9</v>
       </c>
@@ -4573,7 +4584,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="45"/>
     </row>
-    <row r="84" spans="1:11" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="34" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>10</v>
       </c>
@@ -4590,7 +4601,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="45"/>
     </row>
-    <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>11</v>
       </c>
@@ -4607,7 +4618,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="60"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>12</v>
       </c>
@@ -4621,7 +4632,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="61"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>13</v>
       </c>
@@ -4635,7 +4646,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="61"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>14</v>
       </c>
@@ -4651,7 +4662,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="61"/>
     </row>
-    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>15</v>
       </c>
@@ -4665,7 +4676,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="61"/>
     </row>
-    <row r="90" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>16</v>
       </c>
@@ -4679,7 +4690,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="61"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>17</v>
       </c>
@@ -4693,7 +4704,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="61"/>
     </row>
-    <row r="92" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>18</v>
       </c>
@@ -4707,7 +4718,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="61"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>19</v>
       </c>
@@ -4721,7 +4732,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="45"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>20</v>
       </c>
@@ -4735,7 +4746,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="45"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>21</v>
       </c>
@@ -4749,7 +4760,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="45"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>22</v>
       </c>
@@ -4763,7 +4774,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="45"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>23</v>
       </c>
@@ -4777,7 +4788,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="45"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="4"/>
       <c r="C98" s="10"/>
@@ -4787,7 +4798,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="45"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
         <v>308</v>
@@ -4799,7 +4810,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="45"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="50" t="s">
         <v>309</v>
@@ -4811,7 +4822,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="45"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="51" t="s">
         <v>310</v>
@@ -4823,7 +4834,7 @@
       <c r="J101" s="10"/>
       <c r="K101" s="45"/>
     </row>
-    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="50" t="s">
         <v>311</v>
@@ -4838,7 +4849,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="45"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="51" t="s">
         <v>312</v>
@@ -4846,7 +4857,7 @@
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="51" t="s">
         <v>313</v>
@@ -4854,7 +4865,7 @@
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="51" t="s">
         <v>314</v>
@@ -4862,7 +4873,7 @@
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
     </row>
-    <row r="106" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="36" t="s">
         <v>315</v>
@@ -4870,7 +4881,7 @@
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="52" t="s">
         <v>316</v>
@@ -4878,7 +4889,7 @@
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="51" t="s">
         <v>317</v>
@@ -4886,7 +4897,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="36" t="s">
         <v>318</v>
@@ -4894,37 +4905,37 @@
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="4"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="4"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="4"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="4"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="4"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="4"/>
       <c r="C115" s="10"/>
@@ -4947,14 +4958,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" customWidth="1"/>
+    <col min="3" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4980,7 +4991,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5008,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -5034,7 +5045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -5090,7 +5101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -5116,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5142,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>16</v>
       </c>
@@ -5196,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>17</v>
       </c>
@@ -5222,7 +5233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>21</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>22</v>
       </c>
@@ -5290,14 +5301,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -5305,13 +5316,13 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>140</v>
@@ -5321,7 +5332,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>139</v>
       </c>
@@ -5333,7 +5344,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>141</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>142</v>
       </c>
@@ -5360,7 +5371,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -5372,7 +5383,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>143</v>
       </c>
@@ -5382,7 +5393,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>144</v>
       </c>
@@ -5392,7 +5403,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>145</v>
       </c>
@@ -5402,7 +5413,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>146</v>
       </c>
@@ -5412,7 +5423,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>147</v>
       </c>
@@ -5422,7 +5433,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>148</v>
       </c>
@@ -5432,7 +5443,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -5442,7 +5453,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
@@ -5452,7 +5463,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>151</v>
       </c>
@@ -5462,7 +5473,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>152</v>
       </c>
@@ -5472,7 +5483,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>153</v>
       </c>
@@ -5482,7 +5493,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>154</v>
       </c>
@@ -5492,7 +5503,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>155</v>
       </c>
@@ -5502,7 +5513,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>156</v>
       </c>
@@ -5512,7 +5523,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>157</v>
       </c>
@@ -5522,7 +5533,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>158</v>
       </c>
@@ -5532,7 +5543,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
@@ -5542,7 +5553,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>161</v>
       </c>
@@ -5552,7 +5563,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>160</v>
       </c>
@@ -5562,7 +5573,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>162</v>
       </c>
@@ -5572,7 +5583,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>163</v>
       </c>
@@ -5582,19 +5593,19 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5614,14 +5625,14 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5643,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -5654,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -5665,7 +5676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -5676,7 +5687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -5687,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -5698,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -5709,7 +5720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -5731,7 +5742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -5742,7 +5753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -5753,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -5764,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -5775,7 +5786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -5786,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -5797,7 +5808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -5808,7 +5819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -5830,7 +5841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -5841,7 +5852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -5852,7 +5863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -5863,7 +5874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -5874,7 +5885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -5896,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -5907,7 +5918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -5918,7 +5929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -5929,7 +5940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -5940,7 +5951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -5962,7 +5973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -5973,7 +5984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -5995,7 +6006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>34</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -6017,7 +6028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>36</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -6039,7 +6050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>38</v>
       </c>
@@ -6050,7 +6061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -6061,7 +6072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>40</v>
       </c>
@@ -6072,7 +6083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -6083,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>42</v>
       </c>
@@ -6094,7 +6105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -6105,7 +6116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>44</v>
       </c>
@@ -6116,7 +6127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -6127,7 +6138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>46</v>
       </c>
@@ -6138,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -6149,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>48</v>
       </c>
@@ -6158,7 +6169,7 @@
       </c>
       <c r="C51" s="23"/>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -6167,7 +6178,7 @@
       </c>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>50</v>
       </c>
@@ -6176,7 +6187,7 @@
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -6185,7 +6196,7 @@
       </c>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>52</v>
       </c>
@@ -6194,7 +6205,7 @@
       </c>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -6203,7 +6214,7 @@
       </c>
       <c r="C56" s="10"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>54</v>
       </c>
@@ -6212,7 +6223,7 @@
       </c>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -6221,7 +6232,7 @@
       </c>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>56</v>
       </c>
@@ -6230,7 +6241,7 @@
       </c>
       <c r="C59" s="23"/>
     </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -6239,7 +6250,7 @@
       </c>
       <c r="C60" s="23"/>
     </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -6248,7 +6259,7 @@
       </c>
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -6257,7 +6268,7 @@
       </c>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>60</v>
       </c>
@@ -6266,7 +6277,7 @@
       </c>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -6275,7 +6286,7 @@
       </c>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>62</v>
       </c>
@@ -6284,7 +6295,7 @@
       </c>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -6293,7 +6304,7 @@
       </c>
       <c r="C66" s="10"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>64</v>
       </c>
@@ -6302,7 +6313,7 @@
       </c>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -6311,7 +6322,7 @@
       </c>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>66</v>
       </c>
@@ -6320,7 +6331,7 @@
       </c>
       <c r="C69" s="27"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -6329,7 +6340,7 @@
       </c>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>68</v>
       </c>
@@ -6338,7 +6349,7 @@
       </c>
       <c r="C71" s="10"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -6347,7 +6358,7 @@
       </c>
       <c r="C72" s="10"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>70</v>
       </c>
@@ -6356,7 +6367,7 @@
       </c>
       <c r="C73" s="10"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -6365,7 +6376,7 @@
       </c>
       <c r="C74" s="10"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>72</v>
       </c>
@@ -6374,7 +6385,7 @@
       </c>
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -6383,7 +6394,7 @@
       </c>
       <c r="C76" s="10"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>74</v>
       </c>
@@ -6392,7 +6403,7 @@
       </c>
       <c r="C77" s="10"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -6401,7 +6412,7 @@
       </c>
       <c r="C78" s="10"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>76</v>
       </c>
@@ -6410,7 +6421,7 @@
       </c>
       <c r="C79" s="10"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -6419,7 +6430,7 @@
       </c>
       <c r="C80" s="10"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>78</v>
       </c>
@@ -6428,7 +6439,7 @@
       </c>
       <c r="C81" s="10"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -6437,7 +6448,7 @@
       </c>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>80</v>
       </c>
@@ -6446,7 +6457,7 @@
       </c>
       <c r="C83" s="28"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -6455,7 +6466,7 @@
       </c>
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>82</v>
       </c>
@@ -6464,7 +6475,7 @@
       </c>
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -6473,7 +6484,7 @@
       </c>
       <c r="C86" s="23"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>84</v>
       </c>
@@ -6482,7 +6493,7 @@
       </c>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>85</v>
       </c>
@@ -6491,7 +6502,7 @@
       </c>
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>86</v>
       </c>
@@ -6500,7 +6511,7 @@
       </c>
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>87</v>
       </c>
@@ -6509,7 +6520,7 @@
       </c>
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>88</v>
       </c>
@@ -6518,7 +6529,7 @@
       </c>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>89</v>
       </c>
@@ -6544,284 +6555,284 @@
       <selection activeCell="A75" activeCellId="11" sqref="A3 A13 A20 A24 A32:A33 A41 A45 A56 A63 A67 A71 A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -6835,17 +6846,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD9BC22-B038-4383-BDCE-03FE36F0F1B2}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>319</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -6867,7 +6878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -6900,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -6911,7 +6922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -6922,7 +6933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6955,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -6966,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -6988,7 +6999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -6999,7 +7010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -7021,7 +7032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -7043,7 +7054,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -7054,7 +7065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -7065,7 +7076,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -7076,7 +7087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -7087,7 +7098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -7098,7 +7109,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -7109,14 +7120,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="35" t="s">
         <v>344</v>
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -7127,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -7138,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -7149,7 +7160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -7160,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -7171,7 +7182,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -7182,7 +7193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -7215,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -7248,7 +7259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -7259,7 +7270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -7281,7 +7292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -7292,7 +7303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -7325,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -7336,7 +7347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -7358,7 +7369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -7369,7 +7380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -7380,7 +7391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -7391,7 +7402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -7402,7 +7413,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="54" t="s">
         <v>174</v>
@@ -7412,17 +7423,17 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>1</v>
       </c>
@@ -7430,7 +7441,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>2</v>
       </c>
@@ -7438,7 +7449,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>3</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>4</v>
       </c>
@@ -7454,7 +7465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>5</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>6</v>
       </c>
@@ -7470,7 +7481,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -7478,7 +7489,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -7486,7 +7497,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>9</v>
       </c>
@@ -7494,7 +7505,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>10</v>
       </c>
@@ -7502,7 +7513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>11</v>
       </c>
@@ -7510,7 +7521,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>12</v>
       </c>
@@ -7518,7 +7529,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>13</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>14</v>
       </c>
@@ -7534,7 +7545,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>15</v>
       </c>
@@ -7542,7 +7553,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>16</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>17</v>
       </c>
@@ -7558,7 +7569,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>18</v>
       </c>
@@ -7566,7 +7577,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>19</v>
       </c>
@@ -7574,7 +7585,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>20</v>
       </c>
@@ -7582,7 +7593,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>21</v>
       </c>
@@ -7590,7 +7601,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>22</v>
       </c>
@@ -7598,7 +7609,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>23</v>
       </c>
@@ -7606,71 +7617,71 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="50" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="51" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="50" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="51" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="51" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="51" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="36" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="52" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="51" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="36" t="s">
         <v>318</v>
